--- a/TextReplace.Tests/MockFiles/OutputTests/Outputs/NestedReplacements/output-financial-sample-nested-replacements.xlsx
+++ b/TextReplace.Tests/MockFiles/OutputTests/Outputs/NestedReplacements/output-financial-sample-nested-replacements.xlsx
@@ -367,27 +367,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financials" displayName="financials" ref="A1:P701" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:P701"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Segment"/>
-    <tableColumn id="2" name="Country"/>
-    <tableColumn id="3" name="Product"/>
-    <tableColumn id="4" name="Discount Band"/>
-    <tableColumn id="5" name="Units Sold"/>
-    <tableColumn id="6" name="Manufacturing Price"/>
-    <tableColumn id="7" name="Sale Price"/>
-    <tableColumn id="8" name="Gross Sales"/>
-    <tableColumn id="9" name="Discounts"/>
-    <tableColumn id="10" name=" Sales"/>
-    <tableColumn id="11" name="COGS"/>
-    <tableColumn id="12" name="Profit"/>
-    <tableColumn id="13" name="Date"/>
-    <tableColumn id="14" name="Month Number"/>
-    <tableColumn id="15" name="Month Name"/>
-    <tableColumn id="16" name="Year"/>
-  </tableColumns>
-</table>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financials" displayName="financials" ref="A1:P701" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <x:autoFilter ref="A1:P701"/>
+  <x:tableColumns count="16">
+    <x:tableColumn id="1" name="Segment"/>
+    <x:tableColumn id="2" name="Country"/>
+    <x:tableColumn id="3" name="Product"/>
+    <x:tableColumn id="4" name="Discount Band"/>
+    <x:tableColumn id="5" name="Units Sold"/>
+    <x:tableColumn id="6" name="Manufacturing Price"/>
+    <x:tableColumn id="7" name="Sale Price"/>
+    <x:tableColumn id="8" name="Gross Sales"/>
+    <x:tableColumn id="9" name="Discounts"/>
+    <x:tableColumn id="10" name=" Sales"/>
+    <x:tableColumn id="11" name="COGS"/>
+    <x:tableColumn id="12" name="Profit"/>
+    <x:tableColumn id="13" name="Date"/>
+    <x:tableColumn id="14" name="Month Number"/>
+    <x:tableColumn id="15" name="Month Name"/>
+    <x:tableColumn id="16" name="Year"/>
+  </x:tableColumns>
+</x:table>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
